--- a/data/trans_orig/P6501-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE189CB8-B612-4292-869C-B41AF7DB0A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB287B9C-66B2-4F07-A571-37F41325D96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59FD0C45-1A8A-4B53-A519-318A311CCA1C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC88D32B-A5B8-4472-AC7C-825FDBEF17DE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="249">
   <si>
     <t>Población según la exposición a vibraciones provenientes de herramientas o máquinas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,02%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>54,73%</t>
   </si>
   <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
   </si>
   <si>
     <t>68,07%</t>
   </si>
   <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>16,96%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>20,14%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>13,31%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>8,17%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>1,23%</t>
@@ -176,16 +176,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,0%</t>
+    <t>4,57%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,64 +197,61 @@
     <t>57,76%</t>
   </si>
   <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
   </si>
   <si>
     <t>87,54%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>69,07%</t>
   </si>
   <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
   </si>
   <si>
     <t>19,6%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -263,151 +260,154 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>2,75%</t>
+    <t>2,81%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>3,33%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>6,09%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -416,226 +416,229 @@
     <t>54,14%</t>
   </si>
   <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
   </si>
   <si>
     <t>84,83%</t>
   </si>
   <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>27,3%</t>
   </si>
   <si>
     <t>79,55%</t>
   </si>
   <si>
-    <t>43,9%</t>
+    <t>43,36%</t>
   </si>
   <si>
     <t>0%</t>
@@ -653,7 +656,7 @@
     <t>9,19%</t>
   </si>
   <si>
-    <t>41,4%</t>
+    <t>47,84%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -665,55 +668,55 @@
     <t>19,35%</t>
   </si>
   <si>
-    <t>82,65%</t>
+    <t>71,01%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>48,19%</t>
+    <t>48,04%</t>
   </si>
   <si>
     <t>55,77%</t>
   </si>
   <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>18,33%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>8,32%</t>
+    <t>8,29%</t>
   </si>
   <si>
     <t>12,06%</t>
@@ -722,58 +725,61 @@
     <t>15,49%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>1,45%</t>
+    <t>3,3%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>11,55%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1188,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136627B4-7708-4426-A391-B46FCAB932E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B7DB30-099D-4F2F-BF4F-DD9A7CD83238}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1635,13 +1641,13 @@
         <v>32555</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>135</v>
@@ -1650,13 +1656,13 @@
         <v>141809</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1671,13 +1677,13 @@
         <v>91510</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1686,13 +1692,13 @@
         <v>3887</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>91</v>
@@ -1701,13 +1707,13 @@
         <v>95398</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1722,13 +1728,13 @@
         <v>34696</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -1737,13 +1743,13 @@
         <v>6119</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -1752,13 +1758,13 @@
         <v>40815</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,7 +1820,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1826,13 +1832,13 @@
         <v>320948</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>244</v>
@@ -1841,13 +1847,13 @@
         <v>259683</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>552</v>
@@ -1856,13 +1862,13 @@
         <v>580631</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1883,13 @@
         <v>93526</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>34</v>
@@ -1892,13 +1898,13 @@
         <v>35680</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>129</v>
@@ -1907,13 +1913,13 @@
         <v>129206</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1934,13 @@
         <v>103314</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1943,13 +1949,13 @@
         <v>4097</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -1958,13 +1964,13 @@
         <v>107411</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,13 +1985,13 @@
         <v>47957</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1994,13 +2000,13 @@
         <v>5087</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -2009,7 +2015,7 @@
         <v>53044</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>122</v>
@@ -2155,7 +2161,7 @@
         <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -2164,13 +2170,13 @@
         <v>98120</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2185,13 +2191,13 @@
         <v>86017</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2200,13 +2206,13 @@
         <v>7289</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="M21" s="7">
         <v>89</v>
@@ -2412,7 +2418,7 @@
         <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2421,13 +2427,13 @@
         <v>40519</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2448,13 @@
         <v>32158</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2457,13 +2463,13 @@
         <v>978</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -2472,13 +2478,13 @@
         <v>33136</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2499,13 @@
         <v>15204</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2508,13 +2514,13 @@
         <v>940</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>17</v>
@@ -2523,13 +2529,13 @@
         <v>16144</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,7 +2591,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2597,7 +2603,7 @@
         <v>4063</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>195</v>
@@ -2612,10 +2618,10 @@
         <v>2825</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>196</v>
@@ -2627,10 +2633,10 @@
         <v>6888</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>196</v>
@@ -2651,10 +2657,10 @@
         <v>45</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2663,13 +2669,13 @@
         <v>796</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2678,13 +2684,13 @@
         <v>796</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,10 +2708,10 @@
         <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2717,10 +2723,10 @@
         <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2732,10 +2738,10 @@
         <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2756,13 @@
         <v>975</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2768,10 +2774,10 @@
         <v>45</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2780,13 +2786,13 @@
         <v>975</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2860,13 @@
         <v>1062119</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H34" s="7">
         <v>838</v>
@@ -2869,13 +2875,13 @@
         <v>878236</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M34" s="7">
         <v>1848</v>
@@ -2884,13 +2890,13 @@
         <v>1940355</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2911,13 @@
         <v>349046</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H35" s="7">
         <v>100</v>
@@ -2920,13 +2926,13 @@
         <v>104112</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M35" s="7">
         <v>437</v>
@@ -2935,13 +2941,13 @@
         <v>453159</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2962,13 @@
         <v>348366</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -2971,13 +2977,13 @@
         <v>22928</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="M36" s="7">
         <v>358</v>
@@ -2986,13 +2992,13 @@
         <v>371294</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +3013,13 @@
         <v>144858</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -3022,13 +3028,13 @@
         <v>16753</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M37" s="7">
         <v>158</v>
@@ -3037,13 +3043,13 @@
         <v>161611</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,7 +3105,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6501-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB287B9C-66B2-4F07-A571-37F41325D96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C4F600-790A-4126-A98D-F7993F61099F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC88D32B-A5B8-4472-AC7C-825FDBEF17DE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C1D08C73-D6F4-4C1D-91F2-759E54337ED7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="251">
   <si>
     <t>Población según la exposición a vibraciones provenientes de herramientas o máquinas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,02%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>46,61%</t>
   </si>
   <si>
-    <t>61,92%</t>
+    <t>62,69%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
   </si>
   <si>
     <t>68,07%</t>
   </si>
   <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>16,96%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,124 +134,127 @@
     <t>20,14%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>2,06%</t>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -260,43 +263,43 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>2,81%</t>
+    <t>2,87%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -305,325 +308,328 @@
     <t>56,73%</t>
   </si>
   <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
   </si>
   <si>
     <t>85,27%</t>
   </si>
   <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
     <t>80,65%</t>
   </si>
   <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>28,99%</t>
+    <t>25,9%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -638,7 +644,7 @@
     <t>79,55%</t>
   </si>
   <si>
-    <t>43,36%</t>
+    <t>44,86%</t>
   </si>
   <si>
     <t>0%</t>
@@ -656,7 +662,7 @@
     <t>9,19%</t>
   </si>
   <si>
-    <t>47,84%</t>
+    <t>42,17%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -668,118 +674,118 @@
     <t>19,35%</t>
   </si>
   <si>
-    <t>71,01%</t>
+    <t>74,1%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>48,04%</t>
+    <t>46,45%</t>
   </si>
   <si>
     <t>55,77%</t>
   </si>
   <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
   </si>
   <si>
     <t>18,33%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
+    <t>16,43%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1194,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B7DB30-099D-4F2F-BF4F-DD9A7CD83238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC23464-D63A-4347-A0FF-631EFE15891C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1641,13 +1647,13 @@
         <v>32555</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>135</v>
@@ -1656,13 +1662,13 @@
         <v>141809</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1683,13 @@
         <v>91510</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -1692,13 +1698,13 @@
         <v>3887</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>91</v>
@@ -1707,13 +1713,13 @@
         <v>95398</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,13 +1734,13 @@
         <v>34696</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -1743,13 +1749,13 @@
         <v>6119</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -1758,13 +1764,13 @@
         <v>40815</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,7 +1826,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1832,13 +1838,13 @@
         <v>320948</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>244</v>
@@ -1847,13 +1853,13 @@
         <v>259683</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>552</v>
@@ -1862,13 +1868,13 @@
         <v>580631</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,13 +1889,13 @@
         <v>93526</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>34</v>
@@ -1898,13 +1904,13 @@
         <v>35680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>129</v>
@@ -1913,13 +1919,13 @@
         <v>129206</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1940,13 @@
         <v>103314</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1949,13 +1955,13 @@
         <v>4097</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>102</v>
@@ -1964,13 +1970,13 @@
         <v>107411</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1991,13 @@
         <v>47957</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2000,13 +2006,13 @@
         <v>5087</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>51</v>
@@ -2015,13 +2021,13 @@
         <v>53044</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,7 +2083,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2089,13 +2095,13 @@
         <v>236729</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>136</v>
@@ -2104,13 +2110,13 @@
         <v>142455</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>355</v>
@@ -2119,13 +2125,13 @@
         <v>379184</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2146,13 @@
         <v>82829</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -2155,13 +2161,13 @@
         <v>15291</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -2170,13 +2176,13 @@
         <v>98120</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2197,13 @@
         <v>86017</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2206,13 +2212,13 @@
         <v>7289</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>89</v>
@@ -2221,13 +2227,13 @@
         <v>93307</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2248,13 @@
         <v>31684</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2257,13 +2263,13 @@
         <v>2885</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -2272,13 +2278,13 @@
         <v>34569</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,7 +2340,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2346,13 +2352,13 @@
         <v>82342</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -2361,13 +2367,13 @@
         <v>55511</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>136</v>
@@ -2376,13 +2382,13 @@
         <v>137852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2403,13 @@
         <v>33664</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2412,13 +2418,13 @@
         <v>6855</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2427,10 +2433,10 @@
         <v>40519</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>178</v>
@@ -2469,7 +2475,7 @@
         <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -2478,13 +2484,13 @@
         <v>33136</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2505,13 @@
         <v>15204</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2514,13 +2520,13 @@
         <v>940</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M27" s="7">
         <v>17</v>
@@ -2529,13 +2535,13 @@
         <v>16144</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,7 +2597,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2603,13 +2609,13 @@
         <v>4063</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2618,13 +2624,13 @@
         <v>2825</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2633,13 +2639,13 @@
         <v>6888</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,10 +2663,10 @@
         <v>45</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2669,13 +2675,13 @@
         <v>796</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2684,13 +2690,13 @@
         <v>796</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,10 +2714,10 @@
         <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2723,10 +2729,10 @@
         <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2738,10 +2744,10 @@
         <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2762,13 @@
         <v>975</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2774,10 +2780,10 @@
         <v>45</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2786,13 +2792,13 @@
         <v>975</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2866,13 @@
         <v>1062119</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H34" s="7">
         <v>838</v>
@@ -2875,13 +2881,13 @@
         <v>878236</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M34" s="7">
         <v>1848</v>
@@ -2890,13 +2896,13 @@
         <v>1940355</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2917,13 @@
         <v>349046</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>100</v>
@@ -2926,13 +2932,13 @@
         <v>104112</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M35" s="7">
         <v>437</v>
@@ -2941,13 +2947,13 @@
         <v>453159</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2968,13 @@
         <v>348366</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -2977,13 +2983,13 @@
         <v>22928</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>358</v>
@@ -2992,13 +2998,13 @@
         <v>371294</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +3019,13 @@
         <v>144858</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -3028,13 +3034,13 @@
         <v>16753</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>158</v>
@@ -3043,13 +3049,13 @@
         <v>161611</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,7 +3111,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6501-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C4F600-790A-4126-A98D-F7993F61099F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55108295-1210-48EB-9473-8FEB8E77DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C1D08C73-D6F4-4C1D-91F2-759E54337ED7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B6326F4-E408-4ECA-87A6-449C58527F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
   <si>
     <t>Población según la exposición a vibraciones provenientes de herramientas o máquinas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,02%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>54,73%</t>
   </si>
   <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>68,07%</t>
   </si>
   <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>16,96%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
   </si>
   <si>
     <t>9,23%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,28 @@
     <t>20,14%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
   </si>
   <si>
     <t>13,31%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,10 +164,10 @@
     <t>8,17%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
   </si>
   <si>
     <t>1,23%</t>
@@ -176,16 +176,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,29%</t>
+    <t>4,0%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,64 +197,64 @@
     <t>57,76%</t>
   </si>
   <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
   </si>
   <si>
     <t>87,54%</t>
   </si>
   <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>69,07%</t>
   </si>
   <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
   </si>
   <si>
     <t>19,6%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
   </si>
   <si>
     <t>15,78%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
   </si>
   <si>
     <t>1,14%</t>
@@ -263,43 +263,43 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>2,87%</t>
+    <t>2,75%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -308,319 +308,313 @@
     <t>56,73%</t>
   </si>
   <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
   </si>
   <si>
     <t>85,27%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>66,72%</t>
   </si>
   <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
   </si>
   <si>
     <t>11,72%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
   </si>
   <si>
     <t>14,85%</t>
   </si>
   <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
   </si>
   <si>
     <t>18,26%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
   </si>
   <si>
     <t>12,34%</t>
   </si>
   <si>
-    <t>10,32%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>14,73%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
+    <t>26,85%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
+    <t>4,26%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>22,9%</t>
+    <t>23,41%</t>
   </si>
   <si>
     <t>19,68%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>6,28%</t>
+    <t>8,85%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>7,78%</t>
+    <t>7,21%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -629,22 +623,19 @@
     <t>80,65%</t>
   </si>
   <si>
-    <t>25,9%</t>
+    <t>17,35%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
     <t>27,3%</t>
   </si>
   <si>
     <t>79,55%</t>
   </si>
   <si>
-    <t>44,86%</t>
+    <t>43,9%</t>
   </si>
   <si>
     <t>0%</t>
@@ -662,7 +653,7 @@
     <t>9,19%</t>
   </si>
   <si>
-    <t>42,17%</t>
+    <t>41,4%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -674,46 +665,46 @@
     <t>19,35%</t>
   </si>
   <si>
-    <t>74,1%</t>
+    <t>82,65%</t>
   </si>
   <si>
     <t>11,26%</t>
   </si>
   <si>
-    <t>46,45%</t>
+    <t>48,19%</t>
   </si>
   <si>
     <t>55,77%</t>
   </si>
   <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
   </si>
   <si>
     <t>85,93%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
   <si>
     <t>66,3%</t>
   </si>
   <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
   </si>
   <si>
     <t>18,33%</t>
   </si>
   <si>
-    <t>16,68%</t>
+    <t>16,49%</t>
   </si>
   <si>
     <t>20,2%</t>
@@ -722,70 +713,67 @@
     <t>10,19%</t>
   </si>
   <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>16,43%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>1,45%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>11,55%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>5,52%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1200,7 +1188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC23464-D63A-4347-A0FF-631EFE15891C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CAF9A7-EAA3-4970-A406-EE933E15C263}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2021,13 +2009,13 @@
         <v>53044</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,7 +2071,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2095,13 +2083,13 @@
         <v>236729</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>136</v>
@@ -2110,13 +2098,13 @@
         <v>142455</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>355</v>
@@ -2125,13 +2113,13 @@
         <v>379184</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2146,13 +2134,13 @@
         <v>82829</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -2161,13 +2149,13 @@
         <v>15291</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>90</v>
@@ -2176,13 +2164,13 @@
         <v>98120</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,13 +2185,13 @@
         <v>86017</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2212,13 +2200,13 @@
         <v>7289</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>89</v>
@@ -2227,13 +2215,13 @@
         <v>93307</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,13 +2236,13 @@
         <v>31684</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -2263,13 +2251,13 @@
         <v>2885</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -2278,13 +2266,13 @@
         <v>34569</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,7 +2328,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2352,13 +2340,13 @@
         <v>82342</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H24" s="7">
         <v>53</v>
@@ -2367,13 +2355,13 @@
         <v>55511</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M24" s="7">
         <v>136</v>
@@ -2382,13 +2370,13 @@
         <v>137852</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,13 +2391,13 @@
         <v>33664</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2418,13 +2406,13 @@
         <v>6855</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2433,13 +2421,13 @@
         <v>40519</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,13 +2442,13 @@
         <v>32158</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2469,13 +2457,13 @@
         <v>978</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -2484,13 +2472,13 @@
         <v>33136</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,13 +2493,13 @@
         <v>15204</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -2520,13 +2508,13 @@
         <v>940</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>17</v>
@@ -2535,13 +2523,13 @@
         <v>16144</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,7 +2585,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2609,13 +2597,13 @@
         <v>4063</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2624,13 +2612,13 @@
         <v>2825</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>129</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -2639,13 +2627,13 @@
         <v>6888</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,10 +2651,10 @@
         <v>45</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2675,13 +2663,13 @@
         <v>796</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2690,13 +2678,13 @@
         <v>796</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,10 +2702,10 @@
         <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2729,10 +2717,10 @@
         <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2744,10 +2732,10 @@
         <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2750,13 @@
         <v>975</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2780,10 +2768,10 @@
         <v>45</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2792,13 +2780,13 @@
         <v>975</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2854,13 @@
         <v>1062119</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H34" s="7">
         <v>838</v>
@@ -2881,13 +2869,13 @@
         <v>878236</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M34" s="7">
         <v>1848</v>
@@ -2896,13 +2884,13 @@
         <v>1940355</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2905,13 @@
         <v>349046</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H35" s="7">
         <v>100</v>
@@ -2932,13 +2920,13 @@
         <v>104112</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M35" s="7">
         <v>437</v>
@@ -2947,13 +2935,13 @@
         <v>453159</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2956,13 @@
         <v>348366</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>31</v>
+        <v>232</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -2983,13 +2971,13 @@
         <v>22928</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>48</v>
       </c>
       <c r="M36" s="7">
         <v>358</v>
@@ -2998,13 +2986,13 @@
         <v>371294</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3007,13 @@
         <v>144858</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H37" s="7">
         <v>17</v>
@@ -3034,13 +3022,13 @@
         <v>16753</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M37" s="7">
         <v>158</v>
@@ -3049,13 +3037,13 @@
         <v>161611</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,7 +3099,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6501-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6501-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55108295-1210-48EB-9473-8FEB8E77DEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBE3757A-7053-4D73-9CE7-9CF130C0F708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B6326F4-E408-4ECA-87A6-449C58527F5A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{039E31B2-ACBF-4C3D-BA95-482C901E811E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="247">
   <si>
     <t>Población según la exposición a vibraciones provenientes de herramientas o máquinas durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,02%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>57,76%</t>
@@ -302,7 +302,7 @@
     <t>6,09%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>56,73%</t>
@@ -410,7 +410,7 @@
     <t>7,7%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>54,14%</t>
@@ -518,7 +518,7 @@
     <t>8,05%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>50,4%</t>
@@ -617,13 +617,10 @@
     <t>10,57%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>62,03%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -632,16 +629,13 @@
     <t>27,3%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
+    <t>71,39%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>30,57%</t>
+    <t>56,93%</t>
   </si>
   <si>
     <t>21,97%</t>
@@ -650,28 +644,34 @@
     <t>72,7%</t>
   </si>
   <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>55,77%</t>
@@ -1188,8 +1188,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CAF9A7-EAA3-4970-A406-EE933E15C263}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9329F352-8F47-4F8A-BCA6-C59CB5905752}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2027,7 +2027,7 @@
         <v>547</v>
       </c>
       <c r="D18" s="7">
-        <v>565746</v>
+        <v>565745</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2591,19 +2591,19 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>4063</v>
+        <v>1593</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -2615,25 +2615,25 @@
         <v>129</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M29" s="7">
+        <v>4</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4417</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="M29" s="7">
-        <v>7</v>
-      </c>
-      <c r="N29" s="7">
-        <v>6888</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,10 +2651,10 @@
         <v>45</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -2663,13 +2663,13 @@
         <v>796</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -2678,13 +2678,13 @@
         <v>796</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,10 +2702,10 @@
         <v>45</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2717,10 +2717,10 @@
         <v>45</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2732,10 +2732,10 @@
         <v>45</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2750,13 @@
         <v>975</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2768,10 +2768,10 @@
         <v>45</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -2780,13 +2780,13 @@
         <v>975</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,10 +2795,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>5038</v>
+        <v>2568</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2825,10 +2825,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N33" s="7">
-        <v>8659</v>
+        <v>6188</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2842,55 +2842,53 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>1010</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>1062119</v>
+        <v>2471</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>214</v>
+        <v>50</v>
       </c>
       <c r="H34" s="7">
-        <v>838</v>
-      </c>
-      <c r="I34" s="7">
-        <v>878236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" s="7"/>
       <c r="J34" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M34" s="7">
-        <v>1848</v>
+        <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>1940355</v>
+        <v>2471</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,49 +2897,47 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="D35" s="7">
-        <v>349046</v>
+        <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="H35" s="7">
-        <v>100</v>
-      </c>
-      <c r="I35" s="7">
-        <v>104112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="M35" s="7">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="N35" s="7">
-        <v>453159</v>
+        <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,49 +2946,47 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>348366</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="H36" s="7">
-        <v>23</v>
-      </c>
-      <c r="I36" s="7">
-        <v>22928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="7" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="M36" s="7">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="N36" s="7">
-        <v>371294</v>
+        <v>0</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,49 +2995,47 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>144858</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="H37" s="7">
-        <v>17</v>
-      </c>
-      <c r="I37" s="7">
-        <v>16753</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" s="7"/>
       <c r="J37" s="7" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="M37" s="7">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="N37" s="7">
-        <v>161611</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,63 +3044,319 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>3</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M38" s="7">
+        <v>3</v>
+      </c>
+      <c r="N38" s="7">
+        <v>2471</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1010</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1062119</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H39" s="7">
+        <v>838</v>
+      </c>
+      <c r="I39" s="7">
+        <v>878236</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1848</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1940355</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>337</v>
+      </c>
+      <c r="D40" s="7">
+        <v>349046</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H40" s="7">
+        <v>100</v>
+      </c>
+      <c r="I40" s="7">
+        <v>104112</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M40" s="7">
+        <v>437</v>
+      </c>
+      <c r="N40" s="7">
+        <v>453159</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>335</v>
+      </c>
+      <c r="D41" s="7">
+        <v>348366</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H41" s="7">
+        <v>23</v>
+      </c>
+      <c r="I41" s="7">
+        <v>22928</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M41" s="7">
+        <v>358</v>
+      </c>
+      <c r="N41" s="7">
+        <v>371294</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>141</v>
+      </c>
+      <c r="D42" s="7">
+        <v>144858</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H42" s="7">
+        <v>17</v>
+      </c>
+      <c r="I42" s="7">
+        <v>16753</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="M42" s="7">
+        <v>158</v>
+      </c>
+      <c r="N42" s="7">
+        <v>161611</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1823</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D43" s="7">
         <v>1904390</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>978</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I43" s="7">
         <v>1022029</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>2801</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N43" s="7">
         <v>2926419</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>246</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
